--- a/tx_tpd_mux8_invz_April9_tsmc2ff_meas.xlsx
+++ b/tx_tpd_mux8_invz_April9_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="93">
   <si>
     <t>Process</t>
   </si>
@@ -55,16 +55,16 @@
     <t>datarate</t>
   </si>
   <si>
-    <t>tpdr_mux_max (ps)</t>
-  </si>
-  <si>
-    <t>tpdr_mux_min (ps)</t>
-  </si>
-  <si>
-    <t>tpdf_mux_max (ps)</t>
-  </si>
-  <si>
-    <t>tpdf_mux_min (ps)</t>
+    <t>tpd_mux_max (ps)</t>
+  </si>
+  <si>
+    <t>tpd_mux_min (ps)</t>
+  </si>
+  <si>
+    <t>*tpdf_mux_max (ps)</t>
+  </si>
+  <si>
+    <t>*tpdf_mux_min (ps)</t>
   </si>
   <si>
     <t>tc2qr_max (ps)</t>
@@ -73,10 +73,13 @@
     <t>tc2qr_min (ps)</t>
   </si>
   <si>
-    <t>tc2qf_max (ps)</t>
-  </si>
-  <si>
-    <t>tc2qf_min (ps)</t>
+    <t>*tc2qf_max (ps)</t>
+  </si>
+  <si>
+    <t>*tc2qf_min (ps)</t>
+  </si>
+  <si>
+    <t>iavg_vdd (mA)</t>
   </si>
   <si>
     <t>tsmc2ff (0)</t>
@@ -170,9 +173,6 @@
   </si>
   <si>
     <t>cap_l</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>tsmc2ff (5)</t>
@@ -299,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,15 +322,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,12 +333,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,11 +349,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,7 +656,7 @@
     <col min="1" max="101" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1">
+    <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,463 +720,487 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="3">
-        <v>-353.709</v>
-      </c>
-      <c r="O6" s="3">
-        <v>-373.133</v>
-      </c>
-      <c r="P6" s="3">
-        <v>-144.975</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>-157.871</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>52</v>
+      <c r="N6">
+        <v>917.255</v>
+      </c>
+      <c r="O6">
+        <v>32.8055</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6">
+        <v>44.5445</v>
+      </c>
+      <c r="S6">
+        <v>19.0472</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V6">
+        <v>0.305284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-165.726</v>
-      </c>
-      <c r="O7" s="3">
-        <v>-174.593</v>
-      </c>
-      <c r="P7" s="3">
-        <v>-154.798</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>-163.632</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>115.77</v>
+      </c>
+      <c r="O7">
+        <v>27.9197</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7">
+        <v>36.3159</v>
+      </c>
+      <c r="S7">
+        <v>15.8594</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V7">
+        <v>0.361199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1219,43 +1229,46 @@
         <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1284,43 +1297,46 @@
         <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1349,43 +1365,46 @@
         <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1399,58 +1418,61 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1464,58 +1486,61 @@
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1529,58 +1554,61 @@
         <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1594,58 +1622,61 @@
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1659,58 +1690,61 @@
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1724,58 +1758,61 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1804,43 +1841,46 @@
         <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1869,43 +1909,46 @@
         <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1934,43 +1977,46 @@
         <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+        <v>35</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,71 +2080,80 @@
       <c r="U21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+      <c r="V21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="1" customFormat="1">
       <c r="M22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N22" s="3">
-        <v>-353.709</v>
-      </c>
-      <c r="O22" s="3">
-        <v>-373.133</v>
-      </c>
-      <c r="P22" s="3">
-        <v>-154.798</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>-163.632</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>34</v>
+      <c r="N22" s="1">
+        <v>115.77</v>
+      </c>
+      <c r="O22" s="1">
+        <v>27.9197</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="1">
+        <v>36.3159</v>
+      </c>
+      <c r="S22" s="1">
+        <v>15.8594</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+        <v>35</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.305284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="1" customFormat="1">
       <c r="M23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="3">
-        <v>-165.726</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-174.593</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-144.975</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-157.871</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>34</v>
+      <c r="N23" s="1">
+        <v>917.255</v>
+      </c>
+      <c r="O23" s="1">
+        <v>32.8055</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="1">
+        <v>44.5445</v>
+      </c>
+      <c r="S23" s="1">
+        <v>19.0472</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+        <v>35</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.361199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="1" customFormat="1">
       <c r="M24" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:22" s="1" customFormat="1">
       <c r="M25" s="1" t="s">
         <v>87</v>
       </c>
@@ -2126,13 +2181,16 @@
       <c r="U25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="1" customFormat="1">
       <c r="M26" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:22" s="1" customFormat="1">
       <c r="M27" s="1" t="s">
         <v>89</v>
       </c>
@@ -2160,95 +2218,107 @@
       <c r="U27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="1" customFormat="1">
       <c r="M28" s="1" t="s">
         <v>90</v>
       </c>
       <c r="N28" s="1">
-        <v>-259.7175</v>
+        <v>516.5125</v>
       </c>
       <c r="O28" s="1">
-        <v>-273.863</v>
-      </c>
-      <c r="P28" s="1">
-        <v>-149.8865</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>-160.7515</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>34</v>
+        <v>30.3626</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" s="1">
+        <v>40.4302</v>
+      </c>
+      <c r="S28" s="1">
+        <v>17.4533</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+        <v>35</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.3332415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="1" customFormat="1">
       <c r="M29" s="1" t="s">
         <v>91</v>
       </c>
       <c r="N29" s="1">
-        <v>93.9915</v>
+        <v>400.7424999999999</v>
       </c>
       <c r="O29" s="1">
-        <v>99.27000000000002</v>
-      </c>
-      <c r="P29" s="1">
-        <v>4.91149999999999</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>2.880499999999998</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
+        <v>2.4429</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" s="1">
+        <v>4.1143</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1.5939</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+        <v>35</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.0279575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="1" customFormat="1">
       <c r="M30" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N30" s="1">
-        <v>36.18989863986832</v>
+        <v>77.58621524164467</v>
       </c>
       <c r="O30" s="1">
-        <v>36.24805103281568</v>
-      </c>
-      <c r="P30" s="1">
-        <v>3.276812788343173</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>1.791896187593893</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>34</v>
+        <v>8.045753657460164</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" s="1">
+        <v>10.17630385207098</v>
+      </c>
+      <c r="S30" s="1">
+        <v>9.132370382678346</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="1" customFormat="1"/>
+        <v>35</v>
+      </c>
+      <c r="V30" s="1">
+        <v>8.3895613241448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tx_tpd_mux8_invz_April9_tsmc2ff_meas.xlsx
+++ b/tx_tpd_mux8_invz_April9_tsmc2ff_meas.xlsx
@@ -287,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +310,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,10 +350,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,20 +978,20 @@
       <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="N6">
-        <v>34.7814</v>
-      </c>
-      <c r="O6">
-        <v>32.8055</v>
+      <c r="N6" s="3">
+        <v>-34.7756</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-271.688</v>
       </c>
       <c r="P6">
-        <v>44.5445</v>
+        <v>44.2414</v>
       </c>
       <c r="Q6">
-        <v>19.0472</v>
+        <v>19.068</v>
       </c>
       <c r="R6">
-        <v>0.305284</v>
+        <v>0.325933</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1020,20 +1034,20 @@
       <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="N7">
-        <v>28.6569</v>
-      </c>
-      <c r="O7">
-        <v>27.9197</v>
+      <c r="N7" s="3">
+        <v>-46.878</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-275.05</v>
       </c>
       <c r="P7">
-        <v>36.3159</v>
+        <v>35.8586</v>
       </c>
       <c r="Q7">
-        <v>15.8594</v>
+        <v>15.7987</v>
       </c>
       <c r="R7">
-        <v>0.361199</v>
+        <v>0.380093</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1824,40 +1838,40 @@
       <c r="M22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="1">
-        <v>28.6569</v>
-      </c>
-      <c r="O22" s="1">
-        <v>27.9197</v>
+      <c r="N22" s="3">
+        <v>-46.878</v>
+      </c>
+      <c r="O22" s="3">
+        <v>-275.05</v>
       </c>
       <c r="P22" s="1">
-        <v>36.3159</v>
+        <v>35.8586</v>
       </c>
       <c r="Q22" s="1">
-        <v>15.8594</v>
+        <v>15.7987</v>
       </c>
       <c r="R22" s="1">
-        <v>0.305284</v>
+        <v>0.325933</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1">
       <c r="M23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N23" s="1">
-        <v>34.7814</v>
-      </c>
-      <c r="O23" s="1">
-        <v>32.8055</v>
+      <c r="N23" s="3">
+        <v>-34.7756</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-271.688</v>
       </c>
       <c r="P23" s="1">
-        <v>44.5445</v>
+        <v>44.2414</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.0472</v>
+        <v>19.068</v>
       </c>
       <c r="R23" s="1">
-        <v>0.361199</v>
+        <v>0.380093</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1">
@@ -1915,19 +1929,19 @@
         <v>86</v>
       </c>
       <c r="N28" s="1">
-        <v>31.71915</v>
+        <v>-40.82680000000001</v>
       </c>
       <c r="O28" s="1">
-        <v>30.3626</v>
+        <v>-273.369</v>
       </c>
       <c r="P28" s="1">
-        <v>40.4302</v>
+        <v>40.05</v>
       </c>
       <c r="Q28" s="1">
-        <v>17.4533</v>
+        <v>17.43335</v>
       </c>
       <c r="R28" s="1">
-        <v>0.3332415</v>
+        <v>0.353013</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1">
@@ -1935,19 +1949,19 @@
         <v>87</v>
       </c>
       <c r="N29" s="1">
-        <v>3.062250000000002</v>
+        <v>6.051199999999998</v>
       </c>
       <c r="O29" s="1">
-        <v>2.4429</v>
+        <v>1.681000000000012</v>
       </c>
       <c r="P29" s="1">
-        <v>4.1143</v>
+        <v>4.191399999999998</v>
       </c>
       <c r="Q29" s="1">
-        <v>1.5939</v>
+        <v>1.634650000000001</v>
       </c>
       <c r="R29" s="1">
-        <v>0.0279575</v>
+        <v>0.02708000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1">
@@ -1955,19 +1969,19 @@
         <v>88</v>
       </c>
       <c r="N30" s="1">
-        <v>9.654262488118384</v>
+        <v>14.82163676800532</v>
       </c>
       <c r="O30" s="1">
-        <v>8.045753657460164</v>
+        <v>0.6149197604702843</v>
       </c>
       <c r="P30" s="1">
-        <v>10.17630385207098</v>
+        <v>10.46541822721598</v>
       </c>
       <c r="Q30" s="1">
-        <v>9.132370382678346</v>
+        <v>9.376568473643914</v>
       </c>
       <c r="R30" s="1">
-        <v>8.3895613241448</v>
+        <v>7.671105596677748</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1"/>

--- a/tx_tpd_mux8_invz_April9_tsmc2ff_meas.xlsx
+++ b/tx_tpd_mux8_invz_April9_tsmc2ff_meas.xlsx
@@ -287,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,15 +310,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,11 +337,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,11 +964,11 @@
       <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="3">
-        <v>-34.7756</v>
-      </c>
-      <c r="O6" s="3">
-        <v>-271.688</v>
+      <c r="N6">
+        <v>49.216</v>
+      </c>
+      <c r="O6">
+        <v>32.8506</v>
       </c>
       <c r="P6">
         <v>44.2414</v>
@@ -1034,11 +1020,11 @@
       <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="3">
-        <v>-46.878</v>
-      </c>
-      <c r="O7" s="3">
-        <v>-275.05</v>
+      <c r="N7">
+        <v>41.0008</v>
+      </c>
+      <c r="O7">
+        <v>28.6302</v>
       </c>
       <c r="P7">
         <v>35.8586</v>
@@ -1838,11 +1824,11 @@
       <c r="M22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="3">
-        <v>-46.878</v>
-      </c>
-      <c r="O22" s="3">
-        <v>-275.05</v>
+      <c r="N22" s="1">
+        <v>41.0008</v>
+      </c>
+      <c r="O22" s="1">
+        <v>28.6302</v>
       </c>
       <c r="P22" s="1">
         <v>35.8586</v>
@@ -1858,11 +1844,11 @@
       <c r="M23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N23" s="3">
-        <v>-34.7756</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-271.688</v>
+      <c r="N23" s="1">
+        <v>49.216</v>
+      </c>
+      <c r="O23" s="1">
+        <v>32.8506</v>
       </c>
       <c r="P23" s="1">
         <v>44.2414</v>
@@ -1929,10 +1915,10 @@
         <v>86</v>
       </c>
       <c r="N28" s="1">
-        <v>-40.82680000000001</v>
+        <v>45.1084</v>
       </c>
       <c r="O28" s="1">
-        <v>-273.369</v>
+        <v>30.7404</v>
       </c>
       <c r="P28" s="1">
         <v>40.05</v>
@@ -1949,10 +1935,10 @@
         <v>87</v>
       </c>
       <c r="N29" s="1">
-        <v>6.051199999999998</v>
+        <v>4.107600000000001</v>
       </c>
       <c r="O29" s="1">
-        <v>1.681000000000012</v>
+        <v>2.110199999999999</v>
       </c>
       <c r="P29" s="1">
         <v>4.191399999999998</v>
@@ -1969,10 +1955,10 @@
         <v>88</v>
       </c>
       <c r="N30" s="1">
-        <v>14.82163676800532</v>
+        <v>9.106064502398668</v>
       </c>
       <c r="O30" s="1">
-        <v>0.6149197604702843</v>
+        <v>6.86458211344029</v>
       </c>
       <c r="P30" s="1">
         <v>10.46541822721598</v>

--- a/tx_tpd_mux8_invz_April9_tsmc2ff_meas.xlsx
+++ b/tx_tpd_mux8_invz_April9_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="97">
   <si>
     <t>Process</t>
   </si>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>iavg_vdd (mA)</t>
+  </si>
+  <si>
+    <t>tpd_clk2datsel0 (ps)</t>
+  </si>
+  <si>
+    <t>tpd_clk2datsel1 (ps)</t>
+  </si>
+  <si>
+    <t>tpd_clk2datsel2 (ps)</t>
+  </si>
+  <si>
+    <t>tpd_clk2datsel3 (ps)</t>
+  </si>
+  <si>
+    <t>tpd_clk2datsel4 (ps)</t>
+  </si>
+  <si>
+    <t>tpd_clk2datsel5 (ps)</t>
+  </si>
+  <si>
+    <t>tpd_clk2datsel6 (ps)</t>
+  </si>
+  <si>
+    <t>tpd_clk2datsel7 (ps)</t>
   </si>
   <si>
     <t>tsmc2ff (0)</t>
@@ -635,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,7 +668,7 @@
     <col min="1" max="101" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:26" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,270 +723,390 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>39</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="L6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>49.216</v>
@@ -979,46 +1123,70 @@
       <c r="R6">
         <v>0.325933</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>63.3756</v>
+      </c>
+      <c r="T6">
+        <v>67.9256</v>
+      </c>
+      <c r="U6">
+        <v>81.6649</v>
+      </c>
+      <c r="V6">
+        <v>82.42120000000001</v>
+      </c>
+      <c r="W6">
+        <v>82.50269999999999</v>
+      </c>
+      <c r="X6">
+        <v>83.71390000000001</v>
+      </c>
+      <c r="Y6">
+        <v>83.2949</v>
+      </c>
+      <c r="Z6">
+        <v>84.2784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>41.0008</v>
@@ -1035,736 +1203,1072 @@
       <c r="R7">
         <v>0.380093</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>52.8687</v>
+      </c>
+      <c r="T7">
+        <v>56.6748</v>
+      </c>
+      <c r="U7">
+        <v>66.8998</v>
+      </c>
+      <c r="V7">
+        <v>67.52499999999999</v>
+      </c>
+      <c r="W7">
+        <v>67.60380000000001</v>
+      </c>
+      <c r="X7">
+        <v>68.5682</v>
+      </c>
+      <c r="Y7">
+        <v>68.3182</v>
+      </c>
+      <c r="Z7">
+        <v>69.0335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L11" t="s">
         <v>47</v>
       </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
         <v>38</v>
       </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G15" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H15" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I15" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H16" t="s">
         <v>55</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I16" t="s">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H17" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I17" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
         <v>38</v>
       </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="N17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F18" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G18" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
+      <c r="H18" t="s">
         <v>66</v>
       </c>
-      <c r="B13" t="s">
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F19" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G19" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F20" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" t="s">
         <v>38</v>
       </c>
-      <c r="L14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" t="s">
-        <v>30</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="1" customFormat="1">
+        <v>39</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,10 +2323,34 @@
       <c r="R21" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="1" customFormat="1">
+      <c r="S21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="1" customFormat="1">
       <c r="M22" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N22" s="1">
         <v>41.0008</v>
@@ -1839,10 +2367,34 @@
       <c r="R22" s="1">
         <v>0.325933</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="1" customFormat="1">
+      <c r="S22" s="1">
+        <v>52.8687</v>
+      </c>
+      <c r="T22" s="1">
+        <v>56.6748</v>
+      </c>
+      <c r="U22" s="1">
+        <v>66.8998</v>
+      </c>
+      <c r="V22" s="1">
+        <v>67.52499999999999</v>
+      </c>
+      <c r="W22" s="1">
+        <v>67.60380000000001</v>
+      </c>
+      <c r="X22" s="1">
+        <v>68.5682</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>68.3182</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>69.0335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="1" customFormat="1">
       <c r="M23" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N23" s="1">
         <v>49.216</v>
@@ -1859,15 +2411,39 @@
       <c r="R23" s="1">
         <v>0.380093</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="1" customFormat="1">
+      <c r="S23" s="1">
+        <v>63.3756</v>
+      </c>
+      <c r="T23" s="1">
+        <v>67.9256</v>
+      </c>
+      <c r="U23" s="1">
+        <v>81.6649</v>
+      </c>
+      <c r="V23" s="1">
+        <v>82.42120000000001</v>
+      </c>
+      <c r="W23" s="1">
+        <v>82.50269999999999</v>
+      </c>
+      <c r="X23" s="1">
+        <v>83.71390000000001</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>83.2949</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>84.2784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="1" customFormat="1">
       <c r="M24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="1" customFormat="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="1" customFormat="1">
       <c r="M25" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -1884,15 +2460,39 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="1" customFormat="1">
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" s="1" customFormat="1">
       <c r="M26" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="1" customFormat="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" s="1" customFormat="1">
       <c r="M27" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -1909,10 +2509,34 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" s="1" customFormat="1">
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="1" customFormat="1">
       <c r="M28" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N28" s="1">
         <v>45.1084</v>
@@ -1929,10 +2553,34 @@
       <c r="R28" s="1">
         <v>0.353013</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="1" customFormat="1">
+      <c r="S28" s="1">
+        <v>58.12215</v>
+      </c>
+      <c r="T28" s="1">
+        <v>62.3002</v>
+      </c>
+      <c r="U28" s="1">
+        <v>74.28235000000001</v>
+      </c>
+      <c r="V28" s="1">
+        <v>74.9731</v>
+      </c>
+      <c r="W28" s="1">
+        <v>75.05324999999999</v>
+      </c>
+      <c r="X28" s="1">
+        <v>76.14105000000001</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>75.80655</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>76.65595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="1" customFormat="1">
       <c r="M29" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N29" s="1">
         <v>4.107600000000001</v>
@@ -1949,10 +2597,34 @@
       <c r="R29" s="1">
         <v>0.02708000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="1" customFormat="1">
+      <c r="S29" s="1">
+        <v>5.253449999999997</v>
+      </c>
+      <c r="T29" s="1">
+        <v>5.625399999999999</v>
+      </c>
+      <c r="U29" s="1">
+        <v>7.382550000000002</v>
+      </c>
+      <c r="V29" s="1">
+        <v>7.448100000000011</v>
+      </c>
+      <c r="W29" s="1">
+        <v>7.449449999999992</v>
+      </c>
+      <c r="X29" s="1">
+        <v>7.572850000000003</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>7.488349999999997</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>7.622450000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="1" customFormat="1">
       <c r="M30" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N30" s="1">
         <v>9.106064502398668</v>
@@ -1969,8 +2641,32 @@
       <c r="R30" s="1">
         <v>7.671105596677748</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" s="1" customFormat="1"/>
+      <c r="S30" s="1">
+        <v>9.038636733155942</v>
+      </c>
+      <c r="T30" s="1">
+        <v>9.029505523256747</v>
+      </c>
+      <c r="U30" s="1">
+        <v>9.938498176215482</v>
+      </c>
+      <c r="V30" s="1">
+        <v>9.934363124907481</v>
+      </c>
+      <c r="W30" s="1">
+        <v>9.925552857471185</v>
+      </c>
+      <c r="X30" s="1">
+        <v>9.945817663402334</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>9.878236115480782</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>9.943716045525495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
